--- a/mapping/map_sofico.xlsx
+++ b/mapping/map_sofico.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48E9EFC-521D-4D68-BEAC-5D539C932053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9518A7-7ED4-4CE7-A41D-022EAB8F2683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bricks" sheetId="1" r:id="rId1"/>
+    <sheet name="products" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="309">
   <si>
     <t>Nasr City</t>
   </si>
@@ -918,10 +930,40 @@
     <t>CAI1021305</t>
   </si>
   <si>
-    <t>mapbrick_code</t>
-  </si>
-  <si>
-    <t>internal_brick</t>
+    <t>dist_brickcode</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>19200001N</t>
+  </si>
+  <si>
+    <t>19200002N</t>
+  </si>
+  <si>
+    <t>19200003N3</t>
+  </si>
+  <si>
+    <t>19200004N3</t>
+  </si>
+  <si>
+    <t>19200005N3</t>
+  </si>
+  <si>
+    <t>19200006N3</t>
+  </si>
+  <si>
+    <t>19200007N3</t>
+  </si>
+  <si>
+    <t>19200003N2</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>dist_itemcode</t>
   </si>
 </sst>
 </file>
@@ -957,38 +999,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -999,17 +1018,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C848AA45-02A7-4EBD-BCA4-C00CCC3D54D8}" name="Sofico_Brick_map" displayName="Sofico_Brick_map" ref="A1:B303" totalsRowShown="0">
-  <autoFilter ref="A1:B303" xr:uid="{C848AA45-02A7-4EBD-BCA4-C00CCC3D54D8}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7E0C02EC-BA93-4E06-B5BA-7B1BE2D5CD8A}" name="mapbrick_code" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{2C42CB39-62FB-4E30-AD5B-994A66C4A8AE}" name="internal_brick"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1277,18 +1285,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B1" t="s">
@@ -3712,15 +3720,113 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720606C1-CEE5-4992-893D-CC965CA92EF8}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>19200001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6225000366435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6225000366435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>19200002</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6225000366442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6225000366442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6225000366473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6225000366466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6225000366480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6224011259019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6225000366459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6225000366473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mapping/map_sofico.xlsx
+++ b/mapping/map_sofico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9518A7-7ED4-4CE7-A41D-022EAB8F2683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9838AE05-F8C4-4E0C-A6C7-0FA9FBF735C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="312">
   <si>
     <t>Nasr City</t>
   </si>
@@ -964,12 +964,24 @@
   </si>
   <si>
     <t>dist_itemcode</t>
+  </si>
+  <si>
+    <t>added_by</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -999,10 +1011,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,2440 +1296,4259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1101</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1104</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1105</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1107</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1108</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1110</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1111</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1112</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1113</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1114</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1117</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1125</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1126</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1127</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1130</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1135</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1136</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1141</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1142</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1143</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1145</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1146</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1147</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1148</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1150</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1151</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1153</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2204</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2206</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2207</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2208</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D32" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2209</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D33" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2210</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>311</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2211</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>311</v>
+      </c>
+      <c r="D35" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2213</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2214</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D37" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2215</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2216</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>311</v>
+      </c>
+      <c r="D39" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2218</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>311</v>
+      </c>
+      <c r="D40" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2219</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2220</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2221</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2224</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>311</v>
+      </c>
+      <c r="D44" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3301</v>
       </c>
       <c r="B45" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D45" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>3302</v>
       </c>
       <c r="B46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>311</v>
+      </c>
+      <c r="D46" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3303</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>311</v>
+      </c>
+      <c r="D47" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>3304</v>
       </c>
       <c r="B48" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>3305</v>
       </c>
       <c r="B49" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>311</v>
+      </c>
+      <c r="D49" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>3306</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D50" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>3307</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>311</v>
+      </c>
+      <c r="D51" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>3308</v>
       </c>
       <c r="B52" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>3309</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>311</v>
+      </c>
+      <c r="D53" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3311</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>311</v>
+      </c>
+      <c r="D54" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4401</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>311</v>
+      </c>
+      <c r="D55" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>4402</v>
       </c>
       <c r="B56" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>311</v>
+      </c>
+      <c r="D56" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>4403</v>
       </c>
       <c r="B57" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>311</v>
+      </c>
+      <c r="D57" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>4404</v>
       </c>
       <c r="B58" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>311</v>
+      </c>
+      <c r="D58" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>4405</v>
       </c>
       <c r="B59" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>311</v>
+      </c>
+      <c r="D59" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>4406</v>
       </c>
       <c r="B60" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>311</v>
+      </c>
+      <c r="D60" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>4407</v>
       </c>
       <c r="B61" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>311</v>
+      </c>
+      <c r="D61" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>4408</v>
       </c>
       <c r="B62" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>4409</v>
       </c>
       <c r="B63" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>311</v>
+      </c>
+      <c r="D63" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>5501</v>
       </c>
       <c r="B64" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>311</v>
+      </c>
+      <c r="D64" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>6601</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>7701</v>
       </c>
       <c r="B66" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>311</v>
+      </c>
+      <c r="D66" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>8801</v>
       </c>
       <c r="B67" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>311</v>
+      </c>
+      <c r="D67" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>8804</v>
       </c>
       <c r="B68" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>311</v>
+      </c>
+      <c r="D68" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>8805</v>
       </c>
       <c r="B69" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>311</v>
+      </c>
+      <c r="D69" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>8806</v>
       </c>
       <c r="B70" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>311</v>
+      </c>
+      <c r="D70" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>8807</v>
       </c>
       <c r="B71" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>311</v>
+      </c>
+      <c r="D71" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>8808</v>
       </c>
       <c r="B72" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>311</v>
+      </c>
+      <c r="D72" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>8809</v>
       </c>
       <c r="B73" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>9901</v>
       </c>
       <c r="B74" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>311</v>
+      </c>
+      <c r="D74" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>9902</v>
       </c>
       <c r="B75" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>311</v>
+      </c>
+      <c r="D75" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>9903</v>
       </c>
       <c r="B76" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>311</v>
+      </c>
+      <c r="D76" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>9904</v>
       </c>
       <c r="B77" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>311</v>
+      </c>
+      <c r="D77" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>9905</v>
       </c>
       <c r="B78" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>311</v>
+      </c>
+      <c r="D78" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>11101</v>
       </c>
       <c r="B79" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>311</v>
+      </c>
+      <c r="D79" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>11102</v>
       </c>
       <c r="B80" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>311</v>
+      </c>
+      <c r="D80" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>11103</v>
       </c>
       <c r="B81" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>311</v>
+      </c>
+      <c r="D81" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>11104</v>
       </c>
       <c r="B82" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>311</v>
+      </c>
+      <c r="D82" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>11105</v>
       </c>
       <c r="B83" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>311</v>
+      </c>
+      <c r="D83" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>11106</v>
       </c>
       <c r="B84" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>11107</v>
       </c>
       <c r="B85" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>11108</v>
       </c>
       <c r="B86" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>311</v>
+      </c>
+      <c r="D86" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>11109</v>
       </c>
       <c r="B87" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>311</v>
+      </c>
+      <c r="D87" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>11110</v>
       </c>
       <c r="B88" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>311</v>
+      </c>
+      <c r="D88" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>11111</v>
       </c>
       <c r="B89" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>311</v>
+      </c>
+      <c r="D89" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>11112</v>
       </c>
       <c r="B90" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>311</v>
+      </c>
+      <c r="D90" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>11113</v>
       </c>
       <c r="B91" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>311</v>
+      </c>
+      <c r="D91" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>11114</v>
       </c>
       <c r="B92" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>11115</v>
       </c>
       <c r="B93" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>311</v>
+      </c>
+      <c r="D93" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>11116</v>
       </c>
       <c r="B94" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>311</v>
+      </c>
+      <c r="D94" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>11117</v>
       </c>
       <c r="B95" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>311</v>
+      </c>
+      <c r="D95" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>11118</v>
       </c>
       <c r="B96" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>311</v>
+      </c>
+      <c r="D96" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>11119</v>
       </c>
       <c r="B97" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>311</v>
+      </c>
+      <c r="D97" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>11120</v>
       </c>
       <c r="B98" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>311</v>
+      </c>
+      <c r="D98" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>11121</v>
       </c>
       <c r="B99" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>311</v>
+      </c>
+      <c r="D99" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>11122</v>
       </c>
       <c r="B100" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>11123</v>
       </c>
       <c r="B101" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>311</v>
+      </c>
+      <c r="D101" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>11124</v>
       </c>
       <c r="B102" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>311</v>
+      </c>
+      <c r="D102" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>11125</v>
       </c>
       <c r="B103" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>311</v>
+      </c>
+      <c r="D103" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>11126</v>
       </c>
       <c r="B104" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>11127</v>
       </c>
       <c r="B105" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>311</v>
+      </c>
+      <c r="D105" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>11128</v>
       </c>
       <c r="B106" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>311</v>
+      </c>
+      <c r="D106" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>11129</v>
       </c>
       <c r="B107" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>311</v>
+      </c>
+      <c r="D107" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>11130</v>
       </c>
       <c r="B108" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>311</v>
+      </c>
+      <c r="D108" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>11131</v>
       </c>
       <c r="B109" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>311</v>
+      </c>
+      <c r="D109" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>11132</v>
       </c>
       <c r="B110" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>311</v>
+      </c>
+      <c r="D110" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>11133</v>
       </c>
       <c r="B111" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>311</v>
+      </c>
+      <c r="D111" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>11134</v>
       </c>
       <c r="B112" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>311</v>
+      </c>
+      <c r="D112" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>11135</v>
       </c>
       <c r="B113" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>311</v>
+      </c>
+      <c r="D113" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>11136</v>
       </c>
       <c r="B114" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>311</v>
+      </c>
+      <c r="D114" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>11137</v>
       </c>
       <c r="B115" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>311</v>
+      </c>
+      <c r="D115" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>11138</v>
       </c>
       <c r="B116" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>311</v>
+      </c>
+      <c r="D116" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>11139</v>
       </c>
       <c r="B117" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>311</v>
+      </c>
+      <c r="D117" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>11140</v>
       </c>
       <c r="B118" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>311</v>
+      </c>
+      <c r="D118" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>11141</v>
       </c>
       <c r="B119" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>311</v>
+      </c>
+      <c r="D119" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>11142</v>
       </c>
       <c r="B120" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>311</v>
+      </c>
+      <c r="D120" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>11143</v>
       </c>
       <c r="B121" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>311</v>
+      </c>
+      <c r="D121" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>11144</v>
       </c>
       <c r="B122" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>311</v>
+      </c>
+      <c r="D122" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>12201</v>
       </c>
       <c r="B123" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>311</v>
+      </c>
+      <c r="D123" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>12202</v>
       </c>
       <c r="B124" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>311</v>
+      </c>
+      <c r="D124" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>12203</v>
       </c>
       <c r="B125" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>311</v>
+      </c>
+      <c r="D125" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>12204</v>
       </c>
       <c r="B126" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>311</v>
+      </c>
+      <c r="D126" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>12205</v>
       </c>
       <c r="B127" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>311</v>
+      </c>
+      <c r="D127" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>12206</v>
       </c>
       <c r="B128" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>12207</v>
       </c>
       <c r="B129" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>311</v>
+      </c>
+      <c r="D129" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>12208</v>
       </c>
       <c r="B130" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>311</v>
+      </c>
+      <c r="D130" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>12209</v>
       </c>
       <c r="B131" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>311</v>
+      </c>
+      <c r="D131" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>12211</v>
       </c>
       <c r="B132" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>311</v>
+      </c>
+      <c r="D132" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>12212</v>
       </c>
       <c r="B133" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>311</v>
+      </c>
+      <c r="D133" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>12213</v>
       </c>
       <c r="B134" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>311</v>
+      </c>
+      <c r="D134" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>12214</v>
       </c>
       <c r="B135" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>311</v>
+      </c>
+      <c r="D135" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>13301</v>
       </c>
       <c r="B136" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>311</v>
+      </c>
+      <c r="D136" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>13302</v>
       </c>
       <c r="B137" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>311</v>
+      </c>
+      <c r="D137" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>13303</v>
       </c>
       <c r="B138" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>311</v>
+      </c>
+      <c r="D138" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>13304</v>
       </c>
       <c r="B139" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>311</v>
+      </c>
+      <c r="D139" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>13305</v>
       </c>
       <c r="B140" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>311</v>
+      </c>
+      <c r="D140" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>13308</v>
       </c>
       <c r="B141" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>311</v>
+      </c>
+      <c r="D141" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>13309</v>
       </c>
       <c r="B142" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>311</v>
+      </c>
+      <c r="D142" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>13310</v>
       </c>
       <c r="B143" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>311</v>
+      </c>
+      <c r="D143" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>13311</v>
       </c>
       <c r="B144" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>311</v>
+      </c>
+      <c r="D144" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>13312</v>
       </c>
       <c r="B145" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>311</v>
+      </c>
+      <c r="D145" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>14401</v>
       </c>
       <c r="B146" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>311</v>
+      </c>
+      <c r="D146" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>15101</v>
       </c>
       <c r="B147" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>311</v>
+      </c>
+      <c r="D147" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>15102</v>
       </c>
       <c r="B148" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>311</v>
+      </c>
+      <c r="D148" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>15103</v>
       </c>
       <c r="B149" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>311</v>
+      </c>
+      <c r="D149" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>15104</v>
       </c>
       <c r="B150" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>311</v>
+      </c>
+      <c r="D150" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>16201</v>
       </c>
       <c r="B151" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>311</v>
+      </c>
+      <c r="D151" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>16202</v>
       </c>
       <c r="B152" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>311</v>
+      </c>
+      <c r="D152" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>16203</v>
       </c>
       <c r="B153" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>311</v>
+      </c>
+      <c r="D153" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>16204</v>
       </c>
       <c r="B154" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>311</v>
+      </c>
+      <c r="D154" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>17301</v>
       </c>
       <c r="B155" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>311</v>
+      </c>
+      <c r="D155" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>17302</v>
       </c>
       <c r="B156" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>311</v>
+      </c>
+      <c r="D156" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>17303</v>
       </c>
       <c r="B157" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>311</v>
+      </c>
+      <c r="D157" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>17304</v>
       </c>
       <c r="B158" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>311</v>
+      </c>
+      <c r="D158" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>17305</v>
       </c>
       <c r="B159" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>311</v>
+      </c>
+      <c r="D159" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>17306</v>
       </c>
       <c r="B160" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>311</v>
+      </c>
+      <c r="D160" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>17307</v>
       </c>
       <c r="B161" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>311</v>
+      </c>
+      <c r="D161" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>17308</v>
       </c>
       <c r="B162" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>311</v>
+      </c>
+      <c r="D162" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>17309</v>
       </c>
       <c r="B163" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>311</v>
+      </c>
+      <c r="D163" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>17310</v>
       </c>
       <c r="B164" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>311</v>
+      </c>
+      <c r="D164" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>17311</v>
       </c>
       <c r="B165" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>311</v>
+      </c>
+      <c r="D165" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>18401</v>
       </c>
       <c r="B166" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>311</v>
+      </c>
+      <c r="D166" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>18402</v>
       </c>
       <c r="B167" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>311</v>
+      </c>
+      <c r="D167" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>18403</v>
       </c>
       <c r="B168" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>311</v>
+      </c>
+      <c r="D168" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>18404</v>
       </c>
       <c r="B169" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>311</v>
+      </c>
+      <c r="D169" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>18405</v>
       </c>
       <c r="B170" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>311</v>
+      </c>
+      <c r="D170" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>18406</v>
       </c>
       <c r="B171" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>311</v>
+      </c>
+      <c r="D171" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>18407</v>
       </c>
       <c r="B172" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>311</v>
+      </c>
+      <c r="D172" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>18408</v>
       </c>
       <c r="B173" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>311</v>
+      </c>
+      <c r="D173" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>18409</v>
       </c>
       <c r="B174" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>311</v>
+      </c>
+      <c r="D174" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>18410</v>
       </c>
       <c r="B175" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>311</v>
+      </c>
+      <c r="D175" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>18411</v>
       </c>
       <c r="B176" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>311</v>
+      </c>
+      <c r="D176" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>19501</v>
       </c>
       <c r="B177" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>311</v>
+      </c>
+      <c r="D177" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>19502</v>
       </c>
       <c r="B178" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>311</v>
+      </c>
+      <c r="D178" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>19503</v>
       </c>
       <c r="B179" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>311</v>
+      </c>
+      <c r="D179" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>19504</v>
       </c>
       <c r="B180" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>311</v>
+      </c>
+      <c r="D180" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>19505</v>
       </c>
       <c r="B181" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>311</v>
+      </c>
+      <c r="D181" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>19506</v>
       </c>
       <c r="B182" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>311</v>
+      </c>
+      <c r="D182" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>19507</v>
       </c>
       <c r="B183" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>311</v>
+      </c>
+      <c r="D183" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>19508</v>
       </c>
       <c r="B184" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>311</v>
+      </c>
+      <c r="D184" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>19509</v>
       </c>
       <c r="B185" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>311</v>
+      </c>
+      <c r="D185" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>19510</v>
       </c>
       <c r="B186" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>311</v>
+      </c>
+      <c r="D186" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>20601</v>
       </c>
       <c r="B187" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>311</v>
+      </c>
+      <c r="D187" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>20602</v>
       </c>
       <c r="B188" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>311</v>
+      </c>
+      <c r="D188" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>20603</v>
       </c>
       <c r="B189" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>311</v>
+      </c>
+      <c r="D189" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>20604</v>
       </c>
       <c r="B190" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>311</v>
+      </c>
+      <c r="D190" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>20605</v>
       </c>
       <c r="B191" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>311</v>
+      </c>
+      <c r="D191" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>20606</v>
       </c>
       <c r="B192" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>311</v>
+      </c>
+      <c r="D192" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>20607</v>
       </c>
       <c r="B193" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>311</v>
+      </c>
+      <c r="D193" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>20608</v>
       </c>
       <c r="B194" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>311</v>
+      </c>
+      <c r="D194" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>20609</v>
       </c>
       <c r="B195" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>311</v>
+      </c>
+      <c r="D195" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>21701</v>
       </c>
       <c r="B196" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>311</v>
+      </c>
+      <c r="D196" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>21702</v>
       </c>
       <c r="B197" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>311</v>
+      </c>
+      <c r="D197" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>22101</v>
       </c>
       <c r="B198" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>311</v>
+      </c>
+      <c r="D198" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>22102</v>
       </c>
       <c r="B199" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>311</v>
+      </c>
+      <c r="D199" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>22103</v>
       </c>
       <c r="B200" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>311</v>
+      </c>
+      <c r="D200" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>22104</v>
       </c>
       <c r="B201" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>311</v>
+      </c>
+      <c r="D201" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>22105</v>
       </c>
       <c r="B202" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>311</v>
+      </c>
+      <c r="D202" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>22106</v>
       </c>
       <c r="B203" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>311</v>
+      </c>
+      <c r="D203" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>22107</v>
       </c>
       <c r="B204" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>311</v>
+      </c>
+      <c r="D204" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>22108</v>
       </c>
       <c r="B205" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>311</v>
+      </c>
+      <c r="D205" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>22109</v>
       </c>
       <c r="B206" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>311</v>
+      </c>
+      <c r="D206" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>22110</v>
       </c>
       <c r="B207" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>311</v>
+      </c>
+      <c r="D207" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>22112</v>
       </c>
       <c r="B208" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>311</v>
+      </c>
+      <c r="D208" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>22113</v>
       </c>
       <c r="B209" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>311</v>
+      </c>
+      <c r="D209" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>22115</v>
       </c>
       <c r="B210" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>311</v>
+      </c>
+      <c r="D210" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>23201</v>
       </c>
       <c r="B211" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>311</v>
+      </c>
+      <c r="D211" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>23202</v>
       </c>
       <c r="B212" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>311</v>
+      </c>
+      <c r="D212" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>23203</v>
       </c>
       <c r="B213" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>311</v>
+      </c>
+      <c r="D213" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>23204</v>
       </c>
       <c r="B214" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>311</v>
+      </c>
+      <c r="D214" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>23205</v>
       </c>
       <c r="B215" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>311</v>
+      </c>
+      <c r="D215" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>23206</v>
       </c>
       <c r="B216" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>311</v>
+      </c>
+      <c r="D216" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>23207</v>
       </c>
       <c r="B217" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>311</v>
+      </c>
+      <c r="D217" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>23208</v>
       </c>
       <c r="B218" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>311</v>
+      </c>
+      <c r="D218" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>23209</v>
       </c>
       <c r="B219" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>311</v>
+      </c>
+      <c r="D219" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>23210</v>
       </c>
       <c r="B220" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>311</v>
+      </c>
+      <c r="D220" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>23211</v>
       </c>
       <c r="B221" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>311</v>
+      </c>
+      <c r="D221" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>23212</v>
       </c>
       <c r="B222" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
+        <v>311</v>
+      </c>
+      <c r="D222" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>23213</v>
       </c>
       <c r="B223" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
+        <v>311</v>
+      </c>
+      <c r="D223" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>23214</v>
       </c>
       <c r="B224" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>311</v>
+      </c>
+      <c r="D224" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>24301</v>
       </c>
       <c r="B225" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>311</v>
+      </c>
+      <c r="D225" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>24302</v>
       </c>
       <c r="B226" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>311</v>
+      </c>
+      <c r="D226" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>24303</v>
       </c>
       <c r="B227" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
+        <v>311</v>
+      </c>
+      <c r="D227" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>24304</v>
       </c>
       <c r="B228" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
+        <v>311</v>
+      </c>
+      <c r="D228" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>24305</v>
       </c>
       <c r="B229" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>311</v>
+      </c>
+      <c r="D229" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>25401</v>
       </c>
       <c r="B230" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
+        <v>311</v>
+      </c>
+      <c r="D230" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>25402</v>
       </c>
       <c r="B231" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231" t="s">
+        <v>311</v>
+      </c>
+      <c r="D231" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>25403</v>
       </c>
       <c r="B232" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>311</v>
+      </c>
+      <c r="D232" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>25404</v>
       </c>
       <c r="B233" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
+        <v>311</v>
+      </c>
+      <c r="D233" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>25405</v>
       </c>
       <c r="B234" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>311</v>
+      </c>
+      <c r="D234" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>25406</v>
       </c>
       <c r="B235" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>311</v>
+      </c>
+      <c r="D235" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>25407</v>
       </c>
       <c r="B236" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
+        <v>311</v>
+      </c>
+      <c r="D236" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>25408</v>
       </c>
       <c r="B237" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>311</v>
+      </c>
+      <c r="D237" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>25409</v>
       </c>
       <c r="B238" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>311</v>
+      </c>
+      <c r="D238" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>25410</v>
       </c>
       <c r="B239" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>311</v>
+      </c>
+      <c r="D239" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>25411</v>
       </c>
       <c r="B240" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C240" t="s">
+        <v>311</v>
+      </c>
+      <c r="D240" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>26137</v>
       </c>
       <c r="B241" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
+        <v>311</v>
+      </c>
+      <c r="D241" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>26138</v>
       </c>
       <c r="B242" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>311</v>
+      </c>
+      <c r="D242" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>26139</v>
       </c>
       <c r="B243" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C243" t="s">
+        <v>311</v>
+      </c>
+      <c r="D243" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>101001</v>
       </c>
       <c r="B244" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C244" t="s">
+        <v>311</v>
+      </c>
+      <c r="D244" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>2223</v>
       </c>
       <c r="B245" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>311</v>
+      </c>
+      <c r="D245" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>1128</v>
       </c>
       <c r="B246" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>311</v>
+      </c>
+      <c r="D246" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>15112</v>
       </c>
       <c r="B247" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C247" t="s">
+        <v>311</v>
+      </c>
+      <c r="D247" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>22111</v>
       </c>
       <c r="B248" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
+        <v>311</v>
+      </c>
+      <c r="D248" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>99009900</v>
       </c>
       <c r="B249" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C249" t="s">
+        <v>311</v>
+      </c>
+      <c r="D249" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>12215</v>
       </c>
       <c r="B250" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C250" t="s">
+        <v>311</v>
+      </c>
+      <c r="D250" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B251" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C251" t="s">
+        <v>311</v>
+      </c>
+      <c r="D251" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B252" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C252" t="s">
+        <v>311</v>
+      </c>
+      <c r="D252" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B253" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C253" t="s">
+        <v>311</v>
+      </c>
+      <c r="D253" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B254" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C254" t="s">
+        <v>311</v>
+      </c>
+      <c r="D254" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B255" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C255" t="s">
+        <v>311</v>
+      </c>
+      <c r="D255" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B256" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C256" t="s">
+        <v>311</v>
+      </c>
+      <c r="D256" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B257" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C257" t="s">
+        <v>311</v>
+      </c>
+      <c r="D257" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B258" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C258" t="s">
+        <v>311</v>
+      </c>
+      <c r="D258" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B259" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C259" t="s">
+        <v>311</v>
+      </c>
+      <c r="D259" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B260" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C260" t="s">
+        <v>311</v>
+      </c>
+      <c r="D260" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B261" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C261" t="s">
+        <v>311</v>
+      </c>
+      <c r="D261" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B262" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C262" t="s">
+        <v>311</v>
+      </c>
+      <c r="D262" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B263" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C263" t="s">
+        <v>311</v>
+      </c>
+      <c r="D263" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B264" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C264" t="s">
+        <v>311</v>
+      </c>
+      <c r="D264" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B265" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C265" t="s">
+        <v>311</v>
+      </c>
+      <c r="D265" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B266" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C266" t="s">
+        <v>311</v>
+      </c>
+      <c r="D266" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B267" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C267" t="s">
+        <v>311</v>
+      </c>
+      <c r="D267" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B268" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C268" t="s">
+        <v>311</v>
+      </c>
+      <c r="D268" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B269" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C269" t="s">
+        <v>311</v>
+      </c>
+      <c r="D269" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B270" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C270" t="s">
+        <v>311</v>
+      </c>
+      <c r="D270" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B271" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C271" t="s">
+        <v>311</v>
+      </c>
+      <c r="D271" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B272" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C272" t="s">
+        <v>311</v>
+      </c>
+      <c r="D272" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B273" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C273" t="s">
+        <v>311</v>
+      </c>
+      <c r="D273" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B274" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C274" t="s">
+        <v>311</v>
+      </c>
+      <c r="D274" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B275" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C275" t="s">
+        <v>311</v>
+      </c>
+      <c r="D275" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B276" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C276" t="s">
+        <v>311</v>
+      </c>
+      <c r="D276" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B277" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C277" t="s">
+        <v>311</v>
+      </c>
+      <c r="D277" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B278" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C278" t="s">
+        <v>311</v>
+      </c>
+      <c r="D278" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B279" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C279" t="s">
+        <v>311</v>
+      </c>
+      <c r="D279" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B280" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C280" t="s">
+        <v>311</v>
+      </c>
+      <c r="D280" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B281" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C281" t="s">
+        <v>311</v>
+      </c>
+      <c r="D281" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B282" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C282" t="s">
+        <v>311</v>
+      </c>
+      <c r="D282" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B283" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C283" t="s">
+        <v>311</v>
+      </c>
+      <c r="D283" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B284" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C284" t="s">
+        <v>311</v>
+      </c>
+      <c r="D284" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B285" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C285" t="s">
+        <v>311</v>
+      </c>
+      <c r="D285" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B286" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C286" t="s">
+        <v>311</v>
+      </c>
+      <c r="D286" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B287" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C287" t="s">
+        <v>311</v>
+      </c>
+      <c r="D287" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B288" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C288" t="s">
+        <v>311</v>
+      </c>
+      <c r="D288" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B289" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C289" t="s">
+        <v>311</v>
+      </c>
+      <c r="D289" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B290" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C290" t="s">
+        <v>311</v>
+      </c>
+      <c r="D290" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B291" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C291" t="s">
+        <v>311</v>
+      </c>
+      <c r="D291" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B292" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C292" t="s">
+        <v>311</v>
+      </c>
+      <c r="D292" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B293" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C293" t="s">
+        <v>311</v>
+      </c>
+      <c r="D293" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B294" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C294" t="s">
+        <v>311</v>
+      </c>
+      <c r="D294" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B295" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
+        <v>311</v>
+      </c>
+      <c r="D295" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B296" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C296" t="s">
+        <v>311</v>
+      </c>
+      <c r="D296" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B297" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C297" t="s">
+        <v>311</v>
+      </c>
+      <c r="D297" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B298" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C298" t="s">
+        <v>311</v>
+      </c>
+      <c r="D298" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B299" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C299" t="s">
+        <v>311</v>
+      </c>
+      <c r="D299" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B300" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C300" t="s">
+        <v>311</v>
+      </c>
+      <c r="D300" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B301" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C301" t="s">
+        <v>311</v>
+      </c>
+      <c r="D301" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B302" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C302" t="s">
+        <v>311</v>
+      </c>
+      <c r="D302" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B303" t="s">
         <v>237</v>
+      </c>
+      <c r="C303" t="s">
+        <v>311</v>
+      </c>
+      <c r="D303" s="3">
+        <v>45869</v>
       </c>
     </row>
   </sheetData>
@@ -3726,104 +5558,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720606C1-CEE5-4992-893D-CC965CA92EF8}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>19200001</v>
       </c>
       <c r="B2" s="2">
         <v>6225000366435</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B3" s="2">
         <v>6225000366435</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>19200002</v>
       </c>
       <c r="B4" s="2">
         <v>6225000366442</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B5" s="2">
         <v>6225000366442</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B6" s="2">
         <v>6225000366473</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B7" s="2">
         <v>6225000366466</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B8" s="2">
         <v>6225000366480</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B9" s="2">
         <v>6224011259019</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="2">
         <v>6225000366459</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B11" s="2">
         <v>6225000366473</v>
+      </c>
+      <c r="C11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45869</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_sofico.xlsx
+++ b/mapping/map_sofico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9838AE05-F8C4-4E0C-A6C7-0FA9FBF735C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77AB779-992A-4989-801D-AF42780CCC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="312">
-  <si>
-    <t>Nasr City</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="311">
   <si>
     <t>Ain Shams El Gharbeya</t>
   </si>
@@ -1299,7 +1296,7 @@
   <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,27 +1308,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" t="s">
         <v>297</v>
       </c>
-      <c r="B1" t="s">
-        <v>298</v>
-      </c>
       <c r="C1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" t="s">
         <v>309</v>
       </c>
-      <c r="D1" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D2" s="3">
         <v>45869</v>
@@ -1342,10 +1333,10 @@
         <v>1104</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D3" s="3">
         <v>45869</v>
@@ -1356,10 +1347,10 @@
         <v>1105</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3">
         <v>45869</v>
@@ -1370,10 +1361,10 @@
         <v>1107</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D5" s="3">
         <v>45869</v>
@@ -1384,10 +1375,10 @@
         <v>1108</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D6" s="3">
         <v>45869</v>
@@ -1398,10 +1389,10 @@
         <v>1110</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7" s="3">
         <v>45869</v>
@@ -1412,10 +1403,10 @@
         <v>1111</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" s="3">
         <v>45869</v>
@@ -1426,10 +1417,10 @@
         <v>1112</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D9" s="3">
         <v>45869</v>
@@ -1440,10 +1431,10 @@
         <v>1113</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D10" s="3">
         <v>45869</v>
@@ -1454,10 +1445,10 @@
         <v>1114</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D11" s="3">
         <v>45869</v>
@@ -1468,10 +1459,10 @@
         <v>1117</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D12" s="3">
         <v>45869</v>
@@ -1482,10 +1473,10 @@
         <v>1125</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D13" s="3">
         <v>45869</v>
@@ -1496,10 +1487,10 @@
         <v>1126</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D14" s="3">
         <v>45869</v>
@@ -1510,10 +1501,10 @@
         <v>1127</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D15" s="3">
         <v>45869</v>
@@ -1524,10 +1515,10 @@
         <v>1130</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D16" s="3">
         <v>45869</v>
@@ -1538,10 +1529,10 @@
         <v>1135</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D17" s="3">
         <v>45869</v>
@@ -1552,10 +1543,10 @@
         <v>1136</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D18" s="3">
         <v>45869</v>
@@ -1566,10 +1557,10 @@
         <v>1141</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D19" s="3">
         <v>45869</v>
@@ -1580,10 +1571,10 @@
         <v>1142</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D20" s="3">
         <v>45869</v>
@@ -1594,10 +1585,10 @@
         <v>1143</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D21" s="3">
         <v>45869</v>
@@ -1608,10 +1599,10 @@
         <v>1145</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D22" s="3">
         <v>45869</v>
@@ -1622,10 +1613,10 @@
         <v>1146</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D23" s="3">
         <v>45869</v>
@@ -1636,10 +1627,10 @@
         <v>1147</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D24" s="3">
         <v>45869</v>
@@ -1650,10 +1641,10 @@
         <v>1148</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D25" s="3">
         <v>45869</v>
@@ -1664,10 +1655,10 @@
         <v>1150</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D26" s="3">
         <v>45869</v>
@@ -1678,10 +1669,10 @@
         <v>1151</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D27" s="3">
         <v>45869</v>
@@ -1692,10 +1683,10 @@
         <v>1153</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D28" s="3">
         <v>45869</v>
@@ -1706,10 +1697,10 @@
         <v>2204</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D29" s="3">
         <v>45869</v>
@@ -1720,10 +1711,10 @@
         <v>2206</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D30" s="3">
         <v>45869</v>
@@ -1734,10 +1725,10 @@
         <v>2207</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D31" s="3">
         <v>45869</v>
@@ -1748,10 +1739,10 @@
         <v>2208</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D32" s="3">
         <v>45869</v>
@@ -1762,10 +1753,10 @@
         <v>2209</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D33" s="3">
         <v>45869</v>
@@ -1776,10 +1767,10 @@
         <v>2210</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D34" s="3">
         <v>45869</v>
@@ -1790,10 +1781,10 @@
         <v>2211</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D35" s="3">
         <v>45869</v>
@@ -1804,10 +1795,10 @@
         <v>2213</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D36" s="3">
         <v>45869</v>
@@ -1818,10 +1809,10 @@
         <v>2214</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D37" s="3">
         <v>45869</v>
@@ -1832,10 +1823,10 @@
         <v>2215</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D38" s="3">
         <v>45869</v>
@@ -1846,10 +1837,10 @@
         <v>2216</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D39" s="3">
         <v>45869</v>
@@ -1860,10 +1851,10 @@
         <v>2218</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D40" s="3">
         <v>45869</v>
@@ -1874,10 +1865,10 @@
         <v>2219</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D41" s="3">
         <v>45869</v>
@@ -1888,10 +1879,10 @@
         <v>2220</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D42" s="3">
         <v>45869</v>
@@ -1902,10 +1893,10 @@
         <v>2221</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D43" s="3">
         <v>45869</v>
@@ -1916,10 +1907,10 @@
         <v>2224</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D44" s="3">
         <v>45869</v>
@@ -1930,10 +1921,10 @@
         <v>3301</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D45" s="3">
         <v>45869</v>
@@ -1944,10 +1935,10 @@
         <v>3302</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D46" s="3">
         <v>45869</v>
@@ -1958,10 +1949,10 @@
         <v>3303</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D47" s="3">
         <v>45869</v>
@@ -1972,10 +1963,10 @@
         <v>3304</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D48" s="3">
         <v>45869</v>
@@ -1986,10 +1977,10 @@
         <v>3305</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D49" s="3">
         <v>45869</v>
@@ -2000,10 +1991,10 @@
         <v>3306</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D50" s="3">
         <v>45869</v>
@@ -2014,10 +2005,10 @@
         <v>3307</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D51" s="3">
         <v>45869</v>
@@ -2028,10 +2019,10 @@
         <v>3308</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D52" s="3">
         <v>45869</v>
@@ -2042,10 +2033,10 @@
         <v>3309</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D53" s="3">
         <v>45869</v>
@@ -2056,10 +2047,10 @@
         <v>3311</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D54" s="3">
         <v>45869</v>
@@ -2070,10 +2061,10 @@
         <v>4401</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D55" s="3">
         <v>45869</v>
@@ -2084,10 +2075,10 @@
         <v>4402</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D56" s="3">
         <v>45869</v>
@@ -2098,10 +2089,10 @@
         <v>4403</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D57" s="3">
         <v>45869</v>
@@ -2112,10 +2103,10 @@
         <v>4404</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D58" s="3">
         <v>45869</v>
@@ -2126,10 +2117,10 @@
         <v>4405</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D59" s="3">
         <v>45869</v>
@@ -2140,10 +2131,10 @@
         <v>4406</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D60" s="3">
         <v>45869</v>
@@ -2154,10 +2145,10 @@
         <v>4407</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D61" s="3">
         <v>45869</v>
@@ -2168,10 +2159,10 @@
         <v>4408</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D62" s="3">
         <v>45869</v>
@@ -2182,10 +2173,10 @@
         <v>4409</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D63" s="3">
         <v>45869</v>
@@ -2196,10 +2187,10 @@
         <v>5501</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D64" s="3">
         <v>45869</v>
@@ -2210,10 +2201,10 @@
         <v>6601</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D65" s="3">
         <v>45869</v>
@@ -2224,10 +2215,10 @@
         <v>7701</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D66" s="3">
         <v>45869</v>
@@ -2238,10 +2229,10 @@
         <v>8801</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D67" s="3">
         <v>45869</v>
@@ -2252,10 +2243,10 @@
         <v>8804</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D68" s="3">
         <v>45869</v>
@@ -2266,10 +2257,10 @@
         <v>8805</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D69" s="3">
         <v>45869</v>
@@ -2280,10 +2271,10 @@
         <v>8806</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D70" s="3">
         <v>45869</v>
@@ -2294,10 +2285,10 @@
         <v>8807</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D71" s="3">
         <v>45869</v>
@@ -2308,10 +2299,10 @@
         <v>8808</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D72" s="3">
         <v>45869</v>
@@ -2322,10 +2313,10 @@
         <v>8809</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D73" s="3">
         <v>45869</v>
@@ -2336,10 +2327,10 @@
         <v>9901</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D74" s="3">
         <v>45869</v>
@@ -2350,10 +2341,10 @@
         <v>9902</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D75" s="3">
         <v>45869</v>
@@ -2364,10 +2355,10 @@
         <v>9903</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D76" s="3">
         <v>45869</v>
@@ -2378,10 +2369,10 @@
         <v>9904</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D77" s="3">
         <v>45869</v>
@@ -2392,10 +2383,10 @@
         <v>9905</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D78" s="3">
         <v>45869</v>
@@ -2406,10 +2397,10 @@
         <v>11101</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D79" s="3">
         <v>45869</v>
@@ -2420,10 +2411,10 @@
         <v>11102</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D80" s="3">
         <v>45869</v>
@@ -2434,10 +2425,10 @@
         <v>11103</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D81" s="3">
         <v>45869</v>
@@ -2448,10 +2439,10 @@
         <v>11104</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D82" s="3">
         <v>45869</v>
@@ -2462,10 +2453,10 @@
         <v>11105</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D83" s="3">
         <v>45869</v>
@@ -2476,10 +2467,10 @@
         <v>11106</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D84" s="3">
         <v>45869</v>
@@ -2490,10 +2481,10 @@
         <v>11107</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D85" s="3">
         <v>45869</v>
@@ -2504,10 +2495,10 @@
         <v>11108</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D86" s="3">
         <v>45869</v>
@@ -2518,10 +2509,10 @@
         <v>11109</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D87" s="3">
         <v>45869</v>
@@ -2532,10 +2523,10 @@
         <v>11110</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D88" s="3">
         <v>45869</v>
@@ -2546,10 +2537,10 @@
         <v>11111</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D89" s="3">
         <v>45869</v>
@@ -2560,10 +2551,10 @@
         <v>11112</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D90" s="3">
         <v>45869</v>
@@ -2574,10 +2565,10 @@
         <v>11113</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D91" s="3">
         <v>45869</v>
@@ -2588,10 +2579,10 @@
         <v>11114</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D92" s="3">
         <v>45869</v>
@@ -2602,10 +2593,10 @@
         <v>11115</v>
       </c>
       <c r="B93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D93" s="3">
         <v>45869</v>
@@ -2616,10 +2607,10 @@
         <v>11116</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D94" s="3">
         <v>45869</v>
@@ -2630,10 +2621,10 @@
         <v>11117</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D95" s="3">
         <v>45869</v>
@@ -2644,10 +2635,10 @@
         <v>11118</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D96" s="3">
         <v>45869</v>
@@ -2658,10 +2649,10 @@
         <v>11119</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D97" s="3">
         <v>45869</v>
@@ -2672,10 +2663,10 @@
         <v>11120</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D98" s="3">
         <v>45869</v>
@@ -2686,10 +2677,10 @@
         <v>11121</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D99" s="3">
         <v>45869</v>
@@ -2700,10 +2691,10 @@
         <v>11122</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D100" s="3">
         <v>45869</v>
@@ -2714,10 +2705,10 @@
         <v>11123</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D101" s="3">
         <v>45869</v>
@@ -2728,10 +2719,10 @@
         <v>11124</v>
       </c>
       <c r="B102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C102" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D102" s="3">
         <v>45869</v>
@@ -2742,10 +2733,10 @@
         <v>11125</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D103" s="3">
         <v>45869</v>
@@ -2756,10 +2747,10 @@
         <v>11126</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D104" s="3">
         <v>45869</v>
@@ -2770,10 +2761,10 @@
         <v>11127</v>
       </c>
       <c r="B105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C105" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D105" s="3">
         <v>45869</v>
@@ -2784,10 +2775,10 @@
         <v>11128</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D106" s="3">
         <v>45869</v>
@@ -2798,10 +2789,10 @@
         <v>11129</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C107" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D107" s="3">
         <v>45869</v>
@@ -2812,10 +2803,10 @@
         <v>11130</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D108" s="3">
         <v>45869</v>
@@ -2826,10 +2817,10 @@
         <v>11131</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D109" s="3">
         <v>45869</v>
@@ -2840,10 +2831,10 @@
         <v>11132</v>
       </c>
       <c r="B110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D110" s="3">
         <v>45869</v>
@@ -2854,10 +2845,10 @@
         <v>11133</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D111" s="3">
         <v>45869</v>
@@ -2868,10 +2859,10 @@
         <v>11134</v>
       </c>
       <c r="B112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="3">
         <v>45869</v>
@@ -2882,10 +2873,10 @@
         <v>11135</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="3">
         <v>45869</v>
@@ -2896,10 +2887,10 @@
         <v>11136</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D114" s="3">
         <v>45869</v>
@@ -2910,10 +2901,10 @@
         <v>11137</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D115" s="3">
         <v>45869</v>
@@ -2924,10 +2915,10 @@
         <v>11138</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C116" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D116" s="3">
         <v>45869</v>
@@ -2938,10 +2929,10 @@
         <v>11139</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C117" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D117" s="3">
         <v>45869</v>
@@ -2952,10 +2943,10 @@
         <v>11140</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C118" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D118" s="3">
         <v>45869</v>
@@ -2966,10 +2957,10 @@
         <v>11141</v>
       </c>
       <c r="B119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D119" s="3">
         <v>45869</v>
@@ -2980,10 +2971,10 @@
         <v>11142</v>
       </c>
       <c r="B120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D120" s="3">
         <v>45869</v>
@@ -2994,10 +2985,10 @@
         <v>11143</v>
       </c>
       <c r="B121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C121" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D121" s="3">
         <v>45869</v>
@@ -3008,10 +2999,10 @@
         <v>11144</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D122" s="3">
         <v>45869</v>
@@ -3022,10 +3013,10 @@
         <v>12201</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D123" s="3">
         <v>45869</v>
@@ -3036,10 +3027,10 @@
         <v>12202</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D124" s="3">
         <v>45869</v>
@@ -3050,10 +3041,10 @@
         <v>12203</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D125" s="3">
         <v>45869</v>
@@ -3064,10 +3055,10 @@
         <v>12204</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D126" s="3">
         <v>45869</v>
@@ -3078,10 +3069,10 @@
         <v>12205</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C127" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D127" s="3">
         <v>45869</v>
@@ -3092,10 +3083,10 @@
         <v>12206</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D128" s="3">
         <v>45869</v>
@@ -3106,10 +3097,10 @@
         <v>12207</v>
       </c>
       <c r="B129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D129" s="3">
         <v>45869</v>
@@ -3120,10 +3111,10 @@
         <v>12208</v>
       </c>
       <c r="B130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C130" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D130" s="3">
         <v>45869</v>
@@ -3134,10 +3125,10 @@
         <v>12209</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D131" s="3">
         <v>45869</v>
@@ -3148,10 +3139,10 @@
         <v>12211</v>
       </c>
       <c r="B132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D132" s="3">
         <v>45869</v>
@@ -3162,10 +3153,10 @@
         <v>12212</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D133" s="3">
         <v>45869</v>
@@ -3176,10 +3167,10 @@
         <v>12213</v>
       </c>
       <c r="B134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D134" s="3">
         <v>45869</v>
@@ -3190,10 +3181,10 @@
         <v>12214</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C135" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D135" s="3">
         <v>45869</v>
@@ -3204,10 +3195,10 @@
         <v>13301</v>
       </c>
       <c r="B136" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C136" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D136" s="3">
         <v>45869</v>
@@ -3218,10 +3209,10 @@
         <v>13302</v>
       </c>
       <c r="B137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D137" s="3">
         <v>45869</v>
@@ -3232,10 +3223,10 @@
         <v>13303</v>
       </c>
       <c r="B138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C138" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D138" s="3">
         <v>45869</v>
@@ -3246,10 +3237,10 @@
         <v>13304</v>
       </c>
       <c r="B139" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C139" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D139" s="3">
         <v>45869</v>
@@ -3260,10 +3251,10 @@
         <v>13305</v>
       </c>
       <c r="B140" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C140" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D140" s="3">
         <v>45869</v>
@@ -3274,10 +3265,10 @@
         <v>13308</v>
       </c>
       <c r="B141" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C141" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D141" s="3">
         <v>45869</v>
@@ -3288,10 +3279,10 @@
         <v>13309</v>
       </c>
       <c r="B142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D142" s="3">
         <v>45869</v>
@@ -3302,10 +3293,10 @@
         <v>13310</v>
       </c>
       <c r="B143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C143" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D143" s="3">
         <v>45869</v>
@@ -3316,10 +3307,10 @@
         <v>13311</v>
       </c>
       <c r="B144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D144" s="3">
         <v>45869</v>
@@ -3330,10 +3321,10 @@
         <v>13312</v>
       </c>
       <c r="B145" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C145" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D145" s="3">
         <v>45869</v>
@@ -3344,10 +3335,10 @@
         <v>14401</v>
       </c>
       <c r="B146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D146" s="3">
         <v>45869</v>
@@ -3358,10 +3349,10 @@
         <v>15101</v>
       </c>
       <c r="B147" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C147" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D147" s="3">
         <v>45869</v>
@@ -3372,10 +3363,10 @@
         <v>15102</v>
       </c>
       <c r="B148" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C148" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D148" s="3">
         <v>45869</v>
@@ -3386,10 +3377,10 @@
         <v>15103</v>
       </c>
       <c r="B149" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D149" s="3">
         <v>45869</v>
@@ -3400,10 +3391,10 @@
         <v>15104</v>
       </c>
       <c r="B150" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C150" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D150" s="3">
         <v>45869</v>
@@ -3414,10 +3405,10 @@
         <v>16201</v>
       </c>
       <c r="B151" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C151" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D151" s="3">
         <v>45869</v>
@@ -3428,10 +3419,10 @@
         <v>16202</v>
       </c>
       <c r="B152" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C152" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D152" s="3">
         <v>45869</v>
@@ -3442,10 +3433,10 @@
         <v>16203</v>
       </c>
       <c r="B153" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C153" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D153" s="3">
         <v>45869</v>
@@ -3456,10 +3447,10 @@
         <v>16204</v>
       </c>
       <c r="B154" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D154" s="3">
         <v>45869</v>
@@ -3470,10 +3461,10 @@
         <v>17301</v>
       </c>
       <c r="B155" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C155" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D155" s="3">
         <v>45869</v>
@@ -3484,10 +3475,10 @@
         <v>17302</v>
       </c>
       <c r="B156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C156" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D156" s="3">
         <v>45869</v>
@@ -3498,10 +3489,10 @@
         <v>17303</v>
       </c>
       <c r="B157" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C157" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D157" s="3">
         <v>45869</v>
@@ -3512,10 +3503,10 @@
         <v>17304</v>
       </c>
       <c r="B158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C158" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D158" s="3">
         <v>45869</v>
@@ -3526,10 +3517,10 @@
         <v>17305</v>
       </c>
       <c r="B159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C159" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D159" s="3">
         <v>45869</v>
@@ -3540,10 +3531,10 @@
         <v>17306</v>
       </c>
       <c r="B160" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C160" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D160" s="3">
         <v>45869</v>
@@ -3554,10 +3545,10 @@
         <v>17307</v>
       </c>
       <c r="B161" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C161" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D161" s="3">
         <v>45869</v>
@@ -3568,10 +3559,10 @@
         <v>17308</v>
       </c>
       <c r="B162" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C162" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D162" s="3">
         <v>45869</v>
@@ -3582,10 +3573,10 @@
         <v>17309</v>
       </c>
       <c r="B163" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C163" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D163" s="3">
         <v>45869</v>
@@ -3596,10 +3587,10 @@
         <v>17310</v>
       </c>
       <c r="B164" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C164" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D164" s="3">
         <v>45869</v>
@@ -3610,10 +3601,10 @@
         <v>17311</v>
       </c>
       <c r="B165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C165" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D165" s="3">
         <v>45869</v>
@@ -3624,10 +3615,10 @@
         <v>18401</v>
       </c>
       <c r="B166" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C166" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D166" s="3">
         <v>45869</v>
@@ -3638,10 +3629,10 @@
         <v>18402</v>
       </c>
       <c r="B167" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C167" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D167" s="3">
         <v>45869</v>
@@ -3652,10 +3643,10 @@
         <v>18403</v>
       </c>
       <c r="B168" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C168" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D168" s="3">
         <v>45869</v>
@@ -3666,10 +3657,10 @@
         <v>18404</v>
       </c>
       <c r="B169" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C169" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D169" s="3">
         <v>45869</v>
@@ -3680,10 +3671,10 @@
         <v>18405</v>
       </c>
       <c r="B170" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C170" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D170" s="3">
         <v>45869</v>
@@ -3694,10 +3685,10 @@
         <v>18406</v>
       </c>
       <c r="B171" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C171" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D171" s="3">
         <v>45869</v>
@@ -3708,10 +3699,10 @@
         <v>18407</v>
       </c>
       <c r="B172" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C172" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D172" s="3">
         <v>45869</v>
@@ -3722,10 +3713,10 @@
         <v>18408</v>
       </c>
       <c r="B173" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C173" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D173" s="3">
         <v>45869</v>
@@ -3736,10 +3727,10 @@
         <v>18409</v>
       </c>
       <c r="B174" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C174" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D174" s="3">
         <v>45869</v>
@@ -3750,10 +3741,10 @@
         <v>18410</v>
       </c>
       <c r="B175" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C175" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D175" s="3">
         <v>45869</v>
@@ -3764,10 +3755,10 @@
         <v>18411</v>
       </c>
       <c r="B176" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C176" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D176" s="3">
         <v>45869</v>
@@ -3778,10 +3769,10 @@
         <v>19501</v>
       </c>
       <c r="B177" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C177" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D177" s="3">
         <v>45869</v>
@@ -3792,10 +3783,10 @@
         <v>19502</v>
       </c>
       <c r="B178" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C178" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D178" s="3">
         <v>45869</v>
@@ -3806,10 +3797,10 @@
         <v>19503</v>
       </c>
       <c r="B179" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C179" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D179" s="3">
         <v>45869</v>
@@ -3820,10 +3811,10 @@
         <v>19504</v>
       </c>
       <c r="B180" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C180" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D180" s="3">
         <v>45869</v>
@@ -3834,10 +3825,10 @@
         <v>19505</v>
       </c>
       <c r="B181" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C181" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D181" s="3">
         <v>45869</v>
@@ -3848,10 +3839,10 @@
         <v>19506</v>
       </c>
       <c r="B182" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C182" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D182" s="3">
         <v>45869</v>
@@ -3862,10 +3853,10 @@
         <v>19507</v>
       </c>
       <c r="B183" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C183" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D183" s="3">
         <v>45869</v>
@@ -3876,10 +3867,10 @@
         <v>19508</v>
       </c>
       <c r="B184" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C184" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D184" s="3">
         <v>45869</v>
@@ -3890,10 +3881,10 @@
         <v>19509</v>
       </c>
       <c r="B185" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C185" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D185" s="3">
         <v>45869</v>
@@ -3904,10 +3895,10 @@
         <v>19510</v>
       </c>
       <c r="B186" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C186" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D186" s="3">
         <v>45869</v>
@@ -3918,10 +3909,10 @@
         <v>20601</v>
       </c>
       <c r="B187" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C187" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D187" s="3">
         <v>45869</v>
@@ -3932,10 +3923,10 @@
         <v>20602</v>
       </c>
       <c r="B188" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C188" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D188" s="3">
         <v>45869</v>
@@ -3946,10 +3937,10 @@
         <v>20603</v>
       </c>
       <c r="B189" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C189" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D189" s="3">
         <v>45869</v>
@@ -3960,10 +3951,10 @@
         <v>20604</v>
       </c>
       <c r="B190" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C190" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D190" s="3">
         <v>45869</v>
@@ -3974,10 +3965,10 @@
         <v>20605</v>
       </c>
       <c r="B191" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C191" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D191" s="3">
         <v>45869</v>
@@ -3988,10 +3979,10 @@
         <v>20606</v>
       </c>
       <c r="B192" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C192" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D192" s="3">
         <v>45869</v>
@@ -4002,10 +3993,10 @@
         <v>20607</v>
       </c>
       <c r="B193" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C193" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D193" s="3">
         <v>45869</v>
@@ -4016,10 +4007,10 @@
         <v>20608</v>
       </c>
       <c r="B194" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C194" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D194" s="3">
         <v>45869</v>
@@ -4030,10 +4021,10 @@
         <v>20609</v>
       </c>
       <c r="B195" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C195" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D195" s="3">
         <v>45869</v>
@@ -4044,10 +4035,10 @@
         <v>21701</v>
       </c>
       <c r="B196" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D196" s="3">
         <v>45869</v>
@@ -4058,10 +4049,10 @@
         <v>21702</v>
       </c>
       <c r="B197" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C197" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D197" s="3">
         <v>45869</v>
@@ -4072,10 +4063,10 @@
         <v>22101</v>
       </c>
       <c r="B198" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C198" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D198" s="3">
         <v>45869</v>
@@ -4086,10 +4077,10 @@
         <v>22102</v>
       </c>
       <c r="B199" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C199" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D199" s="3">
         <v>45869</v>
@@ -4100,10 +4091,10 @@
         <v>22103</v>
       </c>
       <c r="B200" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C200" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D200" s="3">
         <v>45869</v>
@@ -4114,10 +4105,10 @@
         <v>22104</v>
       </c>
       <c r="B201" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C201" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D201" s="3">
         <v>45869</v>
@@ -4128,10 +4119,10 @@
         <v>22105</v>
       </c>
       <c r="B202" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C202" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D202" s="3">
         <v>45869</v>
@@ -4142,10 +4133,10 @@
         <v>22106</v>
       </c>
       <c r="B203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C203" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D203" s="3">
         <v>45869</v>
@@ -4156,10 +4147,10 @@
         <v>22107</v>
       </c>
       <c r="B204" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C204" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D204" s="3">
         <v>45869</v>
@@ -4170,10 +4161,10 @@
         <v>22108</v>
       </c>
       <c r="B205" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C205" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D205" s="3">
         <v>45869</v>
@@ -4184,10 +4175,10 @@
         <v>22109</v>
       </c>
       <c r="B206" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C206" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D206" s="3">
         <v>45869</v>
@@ -4198,10 +4189,10 @@
         <v>22110</v>
       </c>
       <c r="B207" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C207" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D207" s="3">
         <v>45869</v>
@@ -4212,10 +4203,10 @@
         <v>22112</v>
       </c>
       <c r="B208" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C208" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D208" s="3">
         <v>45869</v>
@@ -4226,10 +4217,10 @@
         <v>22113</v>
       </c>
       <c r="B209" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C209" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D209" s="3">
         <v>45869</v>
@@ -4240,10 +4231,10 @@
         <v>22115</v>
       </c>
       <c r="B210" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D210" s="3">
         <v>45869</v>
@@ -4254,10 +4245,10 @@
         <v>23201</v>
       </c>
       <c r="B211" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C211" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D211" s="3">
         <v>45869</v>
@@ -4268,10 +4259,10 @@
         <v>23202</v>
       </c>
       <c r="B212" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C212" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D212" s="3">
         <v>45869</v>
@@ -4282,10 +4273,10 @@
         <v>23203</v>
       </c>
       <c r="B213" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C213" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D213" s="3">
         <v>45869</v>
@@ -4296,10 +4287,10 @@
         <v>23204</v>
       </c>
       <c r="B214" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C214" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D214" s="3">
         <v>45869</v>
@@ -4310,10 +4301,10 @@
         <v>23205</v>
       </c>
       <c r="B215" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C215" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D215" s="3">
         <v>45869</v>
@@ -4324,10 +4315,10 @@
         <v>23206</v>
       </c>
       <c r="B216" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C216" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D216" s="3">
         <v>45869</v>
@@ -4338,10 +4329,10 @@
         <v>23207</v>
       </c>
       <c r="B217" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C217" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D217" s="3">
         <v>45869</v>
@@ -4352,10 +4343,10 @@
         <v>23208</v>
       </c>
       <c r="B218" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C218" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D218" s="3">
         <v>45869</v>
@@ -4366,10 +4357,10 @@
         <v>23209</v>
       </c>
       <c r="B219" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C219" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D219" s="3">
         <v>45869</v>
@@ -4380,10 +4371,10 @@
         <v>23210</v>
       </c>
       <c r="B220" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C220" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D220" s="3">
         <v>45869</v>
@@ -4394,10 +4385,10 @@
         <v>23211</v>
       </c>
       <c r="B221" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C221" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D221" s="3">
         <v>45869</v>
@@ -4408,10 +4399,10 @@
         <v>23212</v>
       </c>
       <c r="B222" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C222" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D222" s="3">
         <v>45869</v>
@@ -4422,10 +4413,10 @@
         <v>23213</v>
       </c>
       <c r="B223" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C223" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D223" s="3">
         <v>45869</v>
@@ -4436,10 +4427,10 @@
         <v>23214</v>
       </c>
       <c r="B224" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C224" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D224" s="3">
         <v>45869</v>
@@ -4450,10 +4441,10 @@
         <v>24301</v>
       </c>
       <c r="B225" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C225" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D225" s="3">
         <v>45869</v>
@@ -4464,10 +4455,10 @@
         <v>24302</v>
       </c>
       <c r="B226" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C226" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D226" s="3">
         <v>45869</v>
@@ -4478,10 +4469,10 @@
         <v>24303</v>
       </c>
       <c r="B227" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C227" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D227" s="3">
         <v>45869</v>
@@ -4492,10 +4483,10 @@
         <v>24304</v>
       </c>
       <c r="B228" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C228" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D228" s="3">
         <v>45869</v>
@@ -4506,10 +4497,10 @@
         <v>24305</v>
       </c>
       <c r="B229" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C229" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D229" s="3">
         <v>45869</v>
@@ -4520,10 +4511,10 @@
         <v>25401</v>
       </c>
       <c r="B230" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C230" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D230" s="3">
         <v>45869</v>
@@ -4534,10 +4525,10 @@
         <v>25402</v>
       </c>
       <c r="B231" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C231" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D231" s="3">
         <v>45869</v>
@@ -4548,10 +4539,10 @@
         <v>25403</v>
       </c>
       <c r="B232" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C232" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D232" s="3">
         <v>45869</v>
@@ -4562,10 +4553,10 @@
         <v>25404</v>
       </c>
       <c r="B233" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C233" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D233" s="3">
         <v>45869</v>
@@ -4576,10 +4567,10 @@
         <v>25405</v>
       </c>
       <c r="B234" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C234" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D234" s="3">
         <v>45869</v>
@@ -4590,10 +4581,10 @@
         <v>25406</v>
       </c>
       <c r="B235" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C235" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D235" s="3">
         <v>45869</v>
@@ -4604,10 +4595,10 @@
         <v>25407</v>
       </c>
       <c r="B236" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C236" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D236" s="3">
         <v>45869</v>
@@ -4618,10 +4609,10 @@
         <v>25408</v>
       </c>
       <c r="B237" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C237" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D237" s="3">
         <v>45869</v>
@@ -4632,10 +4623,10 @@
         <v>25409</v>
       </c>
       <c r="B238" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C238" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D238" s="3">
         <v>45869</v>
@@ -4646,10 +4637,10 @@
         <v>25410</v>
       </c>
       <c r="B239" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C239" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D239" s="3">
         <v>45869</v>
@@ -4660,10 +4651,10 @@
         <v>25411</v>
       </c>
       <c r="B240" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C240" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D240" s="3">
         <v>45869</v>
@@ -4674,10 +4665,10 @@
         <v>26137</v>
       </c>
       <c r="B241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C241" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D241" s="3">
         <v>45869</v>
@@ -4688,10 +4679,10 @@
         <v>26138</v>
       </c>
       <c r="B242" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C242" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D242" s="3">
         <v>45869</v>
@@ -4702,10 +4693,10 @@
         <v>26139</v>
       </c>
       <c r="B243" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C243" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D243" s="3">
         <v>45869</v>
@@ -4716,10 +4707,10 @@
         <v>101001</v>
       </c>
       <c r="B244" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C244" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D244" s="3">
         <v>45869</v>
@@ -4730,10 +4721,10 @@
         <v>2223</v>
       </c>
       <c r="B245" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C245" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D245" s="3">
         <v>45869</v>
@@ -4744,10 +4735,10 @@
         <v>1128</v>
       </c>
       <c r="B246" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C246" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D246" s="3">
         <v>45869</v>
@@ -4758,10 +4749,10 @@
         <v>15112</v>
       </c>
       <c r="B247" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C247" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D247" s="3">
         <v>45869</v>
@@ -4772,10 +4763,10 @@
         <v>22111</v>
       </c>
       <c r="B248" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C248" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D248" s="3">
         <v>45869</v>
@@ -4786,10 +4777,10 @@
         <v>99009900</v>
       </c>
       <c r="B249" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C249" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D249" s="3">
         <v>45869</v>
@@ -4800,10 +4791,10 @@
         <v>12215</v>
       </c>
       <c r="B250" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C250" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D250" s="3">
         <v>45869</v>
@@ -4811,13 +4802,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B251" t="s">
         <v>234</v>
       </c>
-      <c r="B251" t="s">
-        <v>235</v>
-      </c>
       <c r="C251" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D251" s="3">
         <v>45869</v>
@@ -4825,13 +4816,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B252" t="s">
         <v>236</v>
       </c>
-      <c r="B252" t="s">
-        <v>237</v>
-      </c>
       <c r="C252" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D252" s="3">
         <v>45869</v>
@@ -4839,13 +4830,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B253" t="s">
         <v>238</v>
       </c>
-      <c r="B253" t="s">
-        <v>239</v>
-      </c>
       <c r="C253" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D253" s="3">
         <v>45869</v>
@@ -4853,13 +4844,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B254" t="s">
         <v>240</v>
       </c>
-      <c r="B254" t="s">
-        <v>241</v>
-      </c>
       <c r="C254" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D254" s="3">
         <v>45869</v>
@@ -4867,13 +4858,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B255" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C255" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D255" s="3">
         <v>45869</v>
@@ -4881,13 +4872,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B256" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C256" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D256" s="3">
         <v>45869</v>
@@ -4895,13 +4886,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B257" t="s">
         <v>244</v>
       </c>
-      <c r="B257" t="s">
-        <v>245</v>
-      </c>
       <c r="C257" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D257" s="3">
         <v>45869</v>
@@ -4909,13 +4900,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B258" t="s">
         <v>246</v>
       </c>
-      <c r="B258" t="s">
-        <v>247</v>
-      </c>
       <c r="C258" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D258" s="3">
         <v>45869</v>
@@ -4923,13 +4914,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B259" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C259" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D259" s="3">
         <v>45869</v>
@@ -4937,13 +4928,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B260" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C260" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D260" s="3">
         <v>45869</v>
@@ -4951,13 +4942,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B261" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C261" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D261" s="3">
         <v>45869</v>
@@ -4965,13 +4956,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B262" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C262" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D262" s="3">
         <v>45869</v>
@@ -4979,13 +4970,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B263" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C263" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D263" s="3">
         <v>45869</v>
@@ -4993,13 +4984,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B264" t="s">
         <v>253</v>
       </c>
-      <c r="B264" t="s">
-        <v>254</v>
-      </c>
       <c r="C264" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D264" s="3">
         <v>45869</v>
@@ -5007,13 +4998,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B265" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C265" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D265" s="3">
         <v>45869</v>
@@ -5021,13 +5012,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B266" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C266" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D266" s="3">
         <v>45869</v>
@@ -5035,13 +5026,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B267" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C267" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D267" s="3">
         <v>45869</v>
@@ -5049,13 +5040,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B268" t="s">
         <v>258</v>
       </c>
-      <c r="B268" t="s">
-        <v>259</v>
-      </c>
       <c r="C268" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D268" s="3">
         <v>45869</v>
@@ -5063,13 +5054,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B269" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C269" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D269" s="3">
         <v>45869</v>
@@ -5077,13 +5068,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B270" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C270" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D270" s="3">
         <v>45869</v>
@@ -5091,13 +5082,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B271" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C271" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D271" s="3">
         <v>45869</v>
@@ -5105,13 +5096,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B272" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C272" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D272" s="3">
         <v>45869</v>
@@ -5119,13 +5110,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B273" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C273" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D273" s="3">
         <v>45869</v>
@@ -5133,13 +5124,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B274" t="s">
         <v>265</v>
       </c>
-      <c r="B274" t="s">
-        <v>266</v>
-      </c>
       <c r="C274" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D274" s="3">
         <v>45869</v>
@@ -5147,13 +5138,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B275" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C275" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D275" s="3">
         <v>45869</v>
@@ -5161,13 +5152,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B276" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C276" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D276" s="3">
         <v>45869</v>
@@ -5175,13 +5166,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B277" t="s">
         <v>269</v>
       </c>
-      <c r="B277" t="s">
-        <v>270</v>
-      </c>
       <c r="C277" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D277" s="3">
         <v>45869</v>
@@ -5189,13 +5180,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B278" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C278" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D278" s="3">
         <v>45869</v>
@@ -5203,13 +5194,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B279" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C279" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D279" s="3">
         <v>45869</v>
@@ -5217,13 +5208,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B280" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C280" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D280" s="3">
         <v>45869</v>
@@ -5231,13 +5222,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B281" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C281" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D281" s="3">
         <v>45869</v>
@@ -5245,13 +5236,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B282" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C282" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D282" s="3">
         <v>45869</v>
@@ -5259,13 +5250,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B283" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C283" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D283" s="3">
         <v>45869</v>
@@ -5273,13 +5264,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B284" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C284" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D284" s="3">
         <v>45869</v>
@@ -5287,13 +5278,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B285" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C285" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D285" s="3">
         <v>45869</v>
@@ -5301,13 +5292,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B286" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C286" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D286" s="3">
         <v>45869</v>
@@ -5315,13 +5306,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B287" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C287" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D287" s="3">
         <v>45869</v>
@@ -5329,13 +5320,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B288" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C288" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D288" s="3">
         <v>45869</v>
@@ -5343,13 +5334,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B289" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C289" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D289" s="3">
         <v>45869</v>
@@ -5357,13 +5348,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B290" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C290" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D290" s="3">
         <v>45869</v>
@@ -5371,13 +5362,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B291" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C291" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D291" s="3">
         <v>45869</v>
@@ -5385,13 +5376,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B292" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C292" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D292" s="3">
         <v>45869</v>
@@ -5399,13 +5390,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B293" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C293" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D293" s="3">
         <v>45869</v>
@@ -5413,13 +5404,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C294" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D294" s="3">
         <v>45869</v>
@@ -5427,13 +5418,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B295" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C295" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D295" s="3">
         <v>45869</v>
@@ -5441,13 +5432,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B296" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C296" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D296" s="3">
         <v>45869</v>
@@ -5455,13 +5446,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B297" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C297" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D297" s="3">
         <v>45869</v>
@@ -5469,13 +5460,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B298" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C298" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D298" s="3">
         <v>45869</v>
@@ -5483,13 +5474,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B299" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C299" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D299" s="3">
         <v>45869</v>
@@ -5497,13 +5488,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B300" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C300" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D300" s="3">
         <v>45869</v>
@@ -5511,13 +5502,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B301" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C301" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D301" s="3">
         <v>45869</v>
@@ -5525,13 +5516,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B302" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C302" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D302" s="3">
         <v>45869</v>
@@ -5539,13 +5530,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B303" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C303" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D303" s="3">
         <v>45869</v>
@@ -5573,16 +5564,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>309</v>
-      </c>
-      <c r="D1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5593,7 +5584,7 @@
         <v>6225000366435</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D2" s="3">
         <v>45869</v>
@@ -5601,13 +5592,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="2">
         <v>6225000366435</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D3" s="3">
         <v>45869</v>
@@ -5621,7 +5612,7 @@
         <v>6225000366442</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3">
         <v>45869</v>
@@ -5629,13 +5620,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B5" s="2">
         <v>6225000366442</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D5" s="3">
         <v>45869</v>
@@ -5643,13 +5634,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" s="2">
         <v>6225000366473</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D6" s="3">
         <v>45869</v>
@@ -5657,13 +5648,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B7" s="2">
         <v>6225000366466</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7" s="3">
         <v>45869</v>
@@ -5671,13 +5662,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B8" s="2">
         <v>6225000366480</v>
       </c>
       <c r="C8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" s="3">
         <v>45869</v>
@@ -5685,13 +5676,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" s="2">
         <v>6224011259019</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D9" s="3">
         <v>45869</v>
@@ -5699,13 +5690,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B10" s="2">
         <v>6225000366459</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D10" s="3">
         <v>45869</v>
@@ -5713,13 +5704,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B11" s="2">
         <v>6225000366473</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D11" s="3">
         <v>45869</v>

--- a/mapping/map_sofico.xlsx
+++ b/mapping/map_sofico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77AB779-992A-4989-801D-AF42780CCC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7F81C0-7A48-4802-91EF-370E7F40231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
@@ -1295,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5551,8 +5551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720606C1-CEE5-4992-893D-CC965CA92EF8}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5577,12 +5577,6 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>19200001</v>
-      </c>
-      <c r="B2" s="2">
-        <v>6225000366435</v>
-      </c>
       <c r="C2" t="s">
         <v>310</v>
       </c>

--- a/mapping/map_sofico.xlsx
+++ b/mapping/map_sofico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7F81C0-7A48-4802-91EF-370E7F40231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD41919C-431A-4685-A42B-183BA5895874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="312">
   <si>
     <t>Ain Shams El Gharbeya</t>
   </si>
@@ -970,6 +970,9 @@
   </si>
   <si>
     <t>Mustafa</t>
+  </si>
+  <si>
+    <t>Nasr City</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1299,7 @@
   <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,6 +1324,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
       <c r="C2" t="s">
         <v>310</v>
       </c>
@@ -5552,7 +5561,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5577,6 +5586,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>19200001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6225000366435</v>
+      </c>
       <c r="C2" t="s">
         <v>310</v>
       </c>

--- a/mapping/map_sofico.xlsx
+++ b/mapping/map_sofico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD41919C-431A-4685-A42B-183BA5895874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62471AF-3273-4073-A281-F1156DD43A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5561,7 +5561,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5586,12 +5586,6 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>19200001</v>
-      </c>
-      <c r="B2" s="2">
-        <v>6225000366435</v>
-      </c>
       <c r="C2" t="s">
         <v>310</v>
       </c>

--- a/mapping/map_sofico.xlsx
+++ b/mapping/map_sofico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62471AF-3273-4073-A281-F1156DD43A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12FDF58-B9F9-4F00-ABAC-116B2BCD3D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
@@ -5561,7 +5561,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5586,6 +5586,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>19200001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6225000366435</v>
+      </c>
       <c r="C2" t="s">
         <v>310</v>
       </c>
